--- a/result/result_sample.xlsx
+++ b/result/result_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuya-inagaki/Documents/workspace/python/research-calc-position/result/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F968574-6FCE-D94E-8BE2-6B0FF5EC4679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8143F3C8-4893-CC47-A141-35911C0679F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1262,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1331,13 +1331,13 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2">
-        <f>(C2+F2+I2+L2+O2)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>(D2+G2+J2+M2+P2)/5</f>
-        <v>0</v>
+      <c r="S2" t="e">
+        <f>AVERAGE(C2,F2,I2,L2,O2)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T2" t="e">
+        <f>AVERAGE(D2,G2,J2,M2,P2)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -1347,13 +1347,13 @@
       <c r="R3">
         <v>6</v>
       </c>
-      <c r="S3">
-        <f>(C3+F3+I3+L3+O3)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f t="shared" ref="T3:T66" si="0">(D3+G3+J3+M3+P3)/5</f>
-        <v>0</v>
+      <c r="S3" t="e">
+        <f t="shared" ref="S3:S66" si="0">AVERAGE(C3,F3,I3,L3,O3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T3" t="e">
+        <f t="shared" ref="T3:T66" si="1">AVERAGE(D3,G3,J3,M3,P3)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -1363,13 +1363,13 @@
       <c r="R4">
         <v>1</v>
       </c>
-      <c r="S4">
-        <f t="shared" ref="S4:S67" si="1">(C4+F4+I4+L4+O4)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S4" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T4" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -1379,13 +1379,13 @@
       <c r="R5">
         <v>7</v>
       </c>
-      <c r="S5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -1395,13 +1395,13 @@
       <c r="R6">
         <v>6</v>
       </c>
-      <c r="S6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -1411,13 +1411,13 @@
       <c r="R7">
         <v>7</v>
       </c>
-      <c r="S7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S7" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T7" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -1427,13 +1427,13 @@
       <c r="R8">
         <v>7</v>
       </c>
-      <c r="S8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1443,13 +1443,13 @@
       <c r="R9">
         <v>7</v>
       </c>
-      <c r="S9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T9" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1459,13 +1459,13 @@
       <c r="R10">
         <v>6</v>
       </c>
-      <c r="S10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S10" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T10" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1475,13 +1475,13 @@
       <c r="R11">
         <v>2</v>
       </c>
-      <c r="S11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1491,13 +1491,13 @@
       <c r="R12">
         <v>1</v>
       </c>
-      <c r="S12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S12" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T12" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1507,13 +1507,13 @@
       <c r="R13">
         <v>7</v>
       </c>
-      <c r="S13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S13" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T13" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1523,13 +1523,13 @@
       <c r="R14">
         <v>1</v>
       </c>
-      <c r="S14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S14" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T14" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1539,13 +1539,13 @@
       <c r="R15">
         <v>7</v>
       </c>
-      <c r="S15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S15" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1555,13 +1555,13 @@
       <c r="R16">
         <v>1</v>
       </c>
-      <c r="S16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S16" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T16" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1571,13 +1571,13 @@
       <c r="R17">
         <v>7</v>
       </c>
-      <c r="S17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S17" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T17" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1587,13 +1587,13 @@
       <c r="R18">
         <v>5</v>
       </c>
-      <c r="S18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T18" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1603,13 +1603,13 @@
       <c r="R19">
         <v>1</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T19" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1619,13 +1619,13 @@
       <c r="R20">
         <v>1</v>
       </c>
-      <c r="S20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1635,13 +1635,13 @@
       <c r="R21">
         <v>2</v>
       </c>
-      <c r="S21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1651,13 +1651,13 @@
       <c r="R22">
         <v>6</v>
       </c>
-      <c r="S22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T22" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1667,13 +1667,13 @@
       <c r="R23">
         <v>1</v>
       </c>
-      <c r="S23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T23" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1683,13 +1683,13 @@
       <c r="R24">
         <v>6</v>
       </c>
-      <c r="S24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1699,13 +1699,13 @@
       <c r="R25">
         <v>1</v>
       </c>
-      <c r="S25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S25" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1715,13 +1715,13 @@
       <c r="R26">
         <v>7</v>
       </c>
-      <c r="S26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1731,13 +1731,13 @@
       <c r="R27">
         <v>7</v>
       </c>
-      <c r="S27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1747,13 +1747,13 @@
       <c r="R28">
         <v>1</v>
       </c>
-      <c r="S28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1763,13 +1763,13 @@
       <c r="R29">
         <v>1</v>
       </c>
-      <c r="S29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1779,13 +1779,13 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="S30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1795,13 +1795,13 @@
       <c r="R31">
         <v>1</v>
       </c>
-      <c r="S31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1811,13 +1811,13 @@
       <c r="R32">
         <v>7</v>
       </c>
-      <c r="S32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S32" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1827,13 +1827,13 @@
       <c r="R33">
         <v>2</v>
       </c>
-      <c r="S33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S33" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1843,13 +1843,13 @@
       <c r="R34">
         <v>6</v>
       </c>
-      <c r="S34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S34" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1859,13 +1859,13 @@
       <c r="R35">
         <v>7</v>
       </c>
-      <c r="S35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S35" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1875,13 +1875,13 @@
       <c r="R36">
         <v>6</v>
       </c>
-      <c r="S36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T36">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S36" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1891,13 +1891,13 @@
       <c r="R37">
         <v>6</v>
       </c>
-      <c r="S37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T37">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S37" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1907,13 +1907,13 @@
       <c r="R38">
         <v>3</v>
       </c>
-      <c r="S38">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S38" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1923,13 +1923,13 @@
       <c r="R39">
         <v>6</v>
       </c>
-      <c r="S39">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S39" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1939,13 +1939,13 @@
       <c r="R40">
         <v>1</v>
       </c>
-      <c r="S40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S40" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -1955,13 +1955,13 @@
       <c r="R41">
         <v>1</v>
       </c>
-      <c r="S41">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S41" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -1971,13 +1971,13 @@
       <c r="R42">
         <v>3</v>
       </c>
-      <c r="S42">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S42" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T42" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -1987,13 +1987,13 @@
       <c r="R43">
         <v>3</v>
       </c>
-      <c r="S43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S43" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T43" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2003,13 +2003,13 @@
       <c r="R44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S44" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T44" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2019,13 +2019,13 @@
       <c r="R45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S45" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T45" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2035,13 +2035,13 @@
       <c r="R46">
         <v>3</v>
       </c>
-      <c r="S46">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S46" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T46" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2051,13 +2051,13 @@
       <c r="R47">
         <v>2</v>
       </c>
-      <c r="S47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S47" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T47" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2067,13 +2067,13 @@
       <c r="R48">
         <v>2</v>
       </c>
-      <c r="S48">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S48" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T48" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2083,13 +2083,13 @@
       <c r="R49">
         <v>3</v>
       </c>
-      <c r="S49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S49" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T49" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2099,13 +2099,13 @@
       <c r="R50">
         <v>3</v>
       </c>
-      <c r="S50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S50" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T50" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2115,13 +2115,13 @@
       <c r="R51">
         <v>2</v>
       </c>
-      <c r="S51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T51">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S51" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T51" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2131,13 +2131,13 @@
       <c r="R52">
         <v>6</v>
       </c>
-      <c r="S52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T52">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S52" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2147,13 +2147,13 @@
       <c r="R53">
         <v>6</v>
       </c>
-      <c r="S53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T53">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S53" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T53" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2163,13 +2163,13 @@
       <c r="R54">
         <v>6</v>
       </c>
-      <c r="S54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T54">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S54" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T54" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2179,13 +2179,13 @@
       <c r="R55">
         <v>5</v>
       </c>
-      <c r="S55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S55" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T55" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2195,13 +2195,13 @@
       <c r="R56">
         <v>1</v>
       </c>
-      <c r="S56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T56">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S56" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2211,13 +2211,13 @@
       <c r="R57">
         <v>2</v>
       </c>
-      <c r="S57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T57">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S57" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2227,13 +2227,13 @@
       <c r="R58">
         <v>6</v>
       </c>
-      <c r="S58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T58">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S58" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T58" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2243,13 +2243,13 @@
       <c r="R59">
         <v>1</v>
       </c>
-      <c r="S59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S59" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T59" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2259,13 +2259,13 @@
       <c r="R60">
         <v>1</v>
       </c>
-      <c r="S60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T60">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S60" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T60" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2275,13 +2275,13 @@
       <c r="R61">
         <v>1</v>
       </c>
-      <c r="S61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T61">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S61" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T61" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2291,13 +2291,13 @@
       <c r="R62">
         <v>1</v>
       </c>
-      <c r="S62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T62">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S62" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T62" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2307,13 +2307,13 @@
       <c r="R63">
         <v>1</v>
       </c>
-      <c r="S63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S63" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T63" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2323,13 +2323,13 @@
       <c r="R64">
         <v>6</v>
       </c>
-      <c r="S64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T64">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S64" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T64" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2339,13 +2339,13 @@
       <c r="R65">
         <v>1</v>
       </c>
-      <c r="S65">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T65">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S65" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2355,13 +2355,13 @@
       <c r="R66">
         <v>1</v>
       </c>
-      <c r="S66">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T66">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="S66" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T66" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2371,13 +2371,13 @@
       <c r="R67">
         <v>6</v>
       </c>
-      <c r="S67">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T67">
-        <f t="shared" ref="T67:T130" si="2">(D67+G67+J67+M67+P67)/5</f>
-        <v>0</v>
+      <c r="S67" t="e">
+        <f t="shared" ref="S67:S130" si="2">AVERAGE(C67,F67,I67,L67,O67)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T67" t="e">
+        <f t="shared" ref="T67:T130" si="3">AVERAGE(D67,G67,J67,M67,P67)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -2387,13 +2387,13 @@
       <c r="R68">
         <v>1</v>
       </c>
-      <c r="S68">
-        <f t="shared" ref="S68:S131" si="3">(C68+F68+I68+L68+O68)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T68">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S68" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T68" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -2403,13 +2403,13 @@
       <c r="R69">
         <v>1</v>
       </c>
-      <c r="S69">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T69">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S69" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T69" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -2419,13 +2419,13 @@
       <c r="R70">
         <v>1</v>
       </c>
-      <c r="S70">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T70">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S70" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T70" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -2435,13 +2435,13 @@
       <c r="R71">
         <v>2</v>
       </c>
-      <c r="S71">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T71">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S71" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T71" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -2451,13 +2451,13 @@
       <c r="R72">
         <v>6</v>
       </c>
-      <c r="S72">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T72">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S72" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -2467,13 +2467,13 @@
       <c r="R73">
         <v>6</v>
       </c>
-      <c r="S73">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T73">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S73" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -2483,13 +2483,13 @@
       <c r="R74">
         <v>6</v>
       </c>
-      <c r="S74">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S74" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T74" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -2499,13 +2499,13 @@
       <c r="R75">
         <v>6</v>
       </c>
-      <c r="S75">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S75" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T75" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -2515,13 +2515,13 @@
       <c r="R76">
         <v>6</v>
       </c>
-      <c r="S76">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S76" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -2531,13 +2531,13 @@
       <c r="R77">
         <v>6</v>
       </c>
-      <c r="S77">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S77" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -2547,13 +2547,13 @@
       <c r="R78">
         <v>7</v>
       </c>
-      <c r="S78">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S78" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -2563,13 +2563,13 @@
       <c r="R79">
         <v>7</v>
       </c>
-      <c r="S79">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S79" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -2579,13 +2579,13 @@
       <c r="R80">
         <v>1</v>
       </c>
-      <c r="S80">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S80" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -2595,13 +2595,13 @@
       <c r="R81">
         <v>1</v>
       </c>
-      <c r="S81">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T81">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S81" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -2611,13 +2611,13 @@
       <c r="R82">
         <v>6</v>
       </c>
-      <c r="S82">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T82">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S82" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -2627,13 +2627,13 @@
       <c r="R83">
         <v>1</v>
       </c>
-      <c r="S83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T83">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S83" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -2643,13 +2643,13 @@
       <c r="R84">
         <v>6</v>
       </c>
-      <c r="S84">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T84">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S84" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -2659,13 +2659,13 @@
       <c r="R85">
         <v>6</v>
       </c>
-      <c r="S85">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T85">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S85" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T85" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -2675,13 +2675,13 @@
       <c r="R86">
         <v>6</v>
       </c>
-      <c r="S86">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T86">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S86" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T86" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -2691,13 +2691,13 @@
       <c r="R87">
         <v>1</v>
       </c>
-      <c r="S87">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T87">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S87" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T87" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -2707,13 +2707,13 @@
       <c r="R88">
         <v>6</v>
       </c>
-      <c r="S88">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T88">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S88" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -2723,13 +2723,13 @@
       <c r="R89">
         <v>7</v>
       </c>
-      <c r="S89">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T89">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S89" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -2739,13 +2739,13 @@
       <c r="R90">
         <v>1</v>
       </c>
-      <c r="S90">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T90">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S90" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T90" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -2755,13 +2755,13 @@
       <c r="R91">
         <v>6</v>
       </c>
-      <c r="S91">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T91">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S91" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T91" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -2771,13 +2771,13 @@
       <c r="R92">
         <v>6</v>
       </c>
-      <c r="S92">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T92">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S92" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T92" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -2787,13 +2787,13 @@
       <c r="R93">
         <v>1</v>
       </c>
-      <c r="S93">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T93">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S93" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T93" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -2803,13 +2803,13 @@
       <c r="R94">
         <v>7</v>
       </c>
-      <c r="S94">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T94">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S94" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T94" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -2819,13 +2819,13 @@
       <c r="R95">
         <v>1</v>
       </c>
-      <c r="S95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T95">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S95" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T95" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -2835,13 +2835,13 @@
       <c r="R96">
         <v>1</v>
       </c>
-      <c r="S96">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T96">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S96" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T96" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -2851,13 +2851,13 @@
       <c r="R97">
         <v>1</v>
       </c>
-      <c r="S97">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T97">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S97" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T97" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -2867,13 +2867,13 @@
       <c r="R98">
         <v>1</v>
       </c>
-      <c r="S98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T98">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S98" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T98" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -2883,13 +2883,13 @@
       <c r="R99">
         <v>1</v>
       </c>
-      <c r="S99">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T99">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S99" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T99" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -2899,13 +2899,13 @@
       <c r="R100">
         <v>3</v>
       </c>
-      <c r="S100">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T100">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S100" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T100" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -2915,13 +2915,13 @@
       <c r="R101">
         <v>1</v>
       </c>
-      <c r="S101">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T101">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S101" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T101" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="102" spans="1:20">
@@ -2931,13 +2931,13 @@
       <c r="R102">
         <v>2</v>
       </c>
-      <c r="S102">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T102">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S102" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T102" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="103" spans="1:20">
@@ -2947,13 +2947,13 @@
       <c r="R103">
         <v>5</v>
       </c>
-      <c r="S103">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S103" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T103" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="104" spans="1:20">
@@ -2963,13 +2963,13 @@
       <c r="R104">
         <v>3</v>
       </c>
-      <c r="S104">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S104" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T104" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="1:20">
@@ -2979,13 +2979,13 @@
       <c r="R105">
         <v>1</v>
       </c>
-      <c r="S105">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T105">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S105" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T105" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="106" spans="1:20">
@@ -2995,13 +2995,13 @@
       <c r="R106">
         <v>2</v>
       </c>
-      <c r="S106">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T106">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S106" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T106" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="107" spans="1:20">
@@ -3011,13 +3011,13 @@
       <c r="R107">
         <v>5</v>
       </c>
-      <c r="S107">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T107">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S107" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T107" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="108" spans="1:20">
@@ -3027,13 +3027,13 @@
       <c r="R108">
         <v>1</v>
       </c>
-      <c r="S108">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T108">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S108" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T108" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="109" spans="1:20">
@@ -3043,13 +3043,13 @@
       <c r="R109">
         <v>1</v>
       </c>
-      <c r="S109">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T109">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S109" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T109" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="110" spans="1:20">
@@ -3059,13 +3059,13 @@
       <c r="R110">
         <v>1</v>
       </c>
-      <c r="S110">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T110">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S110" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T110" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="111" spans="1:20">
@@ -3075,13 +3075,13 @@
       <c r="R111">
         <v>1</v>
       </c>
-      <c r="S111">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T111">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S111" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T111" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="112" spans="1:20">
@@ -3091,13 +3091,13 @@
       <c r="R112">
         <v>6</v>
       </c>
-      <c r="S112">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T112">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S112" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T112" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="113" spans="1:20">
@@ -3107,13 +3107,13 @@
       <c r="R113">
         <v>1</v>
       </c>
-      <c r="S113">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T113">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S113" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T113" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="114" spans="1:20">
@@ -3123,13 +3123,13 @@
       <c r="R114">
         <v>6</v>
       </c>
-      <c r="S114">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T114">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S114" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T114" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="115" spans="1:20">
@@ -3139,13 +3139,13 @@
       <c r="R115">
         <v>1</v>
       </c>
-      <c r="S115">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T115">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S115" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T115" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="116" spans="1:20">
@@ -3155,13 +3155,13 @@
       <c r="R116">
         <v>1</v>
       </c>
-      <c r="S116">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T116">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S116" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T116" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="1:20">
@@ -3171,13 +3171,13 @@
       <c r="R117">
         <v>1</v>
       </c>
-      <c r="S117">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T117">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S117" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T117" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="118" spans="1:20">
@@ -3187,13 +3187,13 @@
       <c r="R118">
         <v>2</v>
       </c>
-      <c r="S118">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S118" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T118" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="119" spans="1:20">
@@ -3203,13 +3203,13 @@
       <c r="R119">
         <v>1</v>
       </c>
-      <c r="S119">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T119">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S119" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T119" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="120" spans="1:20">
@@ -3219,13 +3219,13 @@
       <c r="R120">
         <v>1</v>
       </c>
-      <c r="S120">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T120">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S120" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T120" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="121" spans="1:20">
@@ -3235,13 +3235,13 @@
       <c r="R121">
         <v>1</v>
       </c>
-      <c r="S121">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T121">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S121" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T121" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="122" spans="1:20">
@@ -3251,13 +3251,13 @@
       <c r="R122">
         <v>1</v>
       </c>
-      <c r="S122">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T122">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S122" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T122" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="123" spans="1:20">
@@ -3267,13 +3267,13 @@
       <c r="R123">
         <v>6</v>
       </c>
-      <c r="S123">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T123">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S123" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T123" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="124" spans="1:20">
@@ -3283,13 +3283,13 @@
       <c r="R124">
         <v>1</v>
       </c>
-      <c r="S124">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T124">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S124" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T124" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="125" spans="1:20">
@@ -3299,13 +3299,13 @@
       <c r="R125">
         <v>1</v>
       </c>
-      <c r="S125">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T125">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S125" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T125" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="126" spans="1:20">
@@ -3315,13 +3315,13 @@
       <c r="R126">
         <v>1</v>
       </c>
-      <c r="S126">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T126">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S126" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T126" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="127" spans="1:20">
@@ -3331,13 +3331,13 @@
       <c r="R127">
         <v>1</v>
       </c>
-      <c r="S127">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T127">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S127" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T127" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="128" spans="1:20">
@@ -3347,13 +3347,13 @@
       <c r="R128">
         <v>1</v>
       </c>
-      <c r="S128">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T128">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S128" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T128" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="129" spans="1:20">
@@ -3363,13 +3363,13 @@
       <c r="R129">
         <v>1</v>
       </c>
-      <c r="S129">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T129">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S129" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T129" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="130" spans="1:20">
@@ -3379,13 +3379,13 @@
       <c r="R130">
         <v>1</v>
       </c>
-      <c r="S130">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T130">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="S130" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T130" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="131" spans="1:20">
@@ -3395,13 +3395,13 @@
       <c r="R131">
         <v>5</v>
       </c>
-      <c r="S131">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T131">
-        <f t="shared" ref="T131:T194" si="4">(D131+G131+J131+M131+P131)/5</f>
-        <v>0</v>
+      <c r="S131" t="e">
+        <f t="shared" ref="S131:S194" si="4">AVERAGE(C131,F131,I131,L131,O131)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T131" t="e">
+        <f t="shared" ref="T131:T194" si="5">AVERAGE(D131,G131,J131,M131,P131)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="132" spans="1:20">
@@ -3411,13 +3411,13 @@
       <c r="R132">
         <v>1</v>
       </c>
-      <c r="S132">
-        <f t="shared" ref="S132:S195" si="5">(C132+F132+I132+L132+O132)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T132">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S132" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T132" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="133" spans="1:20">
@@ -3427,13 +3427,13 @@
       <c r="R133">
         <v>1</v>
       </c>
-      <c r="S133">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T133">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S133" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T133" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="134" spans="1:20">
@@ -3443,13 +3443,13 @@
       <c r="R134">
         <v>2</v>
       </c>
-      <c r="S134">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T134">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S134" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T134" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="135" spans="1:20">
@@ -3459,13 +3459,13 @@
       <c r="R135">
         <v>6</v>
       </c>
-      <c r="S135">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T135">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S135" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T135" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="136" spans="1:20">
@@ -3475,13 +3475,13 @@
       <c r="R136">
         <v>1</v>
       </c>
-      <c r="S136">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T136">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S136" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T136" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="137" spans="1:20">
@@ -3491,13 +3491,13 @@
       <c r="R137">
         <v>2</v>
       </c>
-      <c r="S137">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T137">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S137" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T137" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="138" spans="1:20">
@@ -3507,13 +3507,13 @@
       <c r="R138">
         <v>1</v>
       </c>
-      <c r="S138">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T138">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S138" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T138" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="139" spans="1:20">
@@ -3523,13 +3523,13 @@
       <c r="R139">
         <v>6</v>
       </c>
-      <c r="S139">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T139">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S139" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T139" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="140" spans="1:20">
@@ -3539,13 +3539,13 @@
       <c r="R140">
         <v>1</v>
       </c>
-      <c r="S140">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T140">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S140" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T140" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="141" spans="1:20">
@@ -3555,13 +3555,13 @@
       <c r="R141">
         <v>2</v>
       </c>
-      <c r="S141">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T141">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S141" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T141" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="142" spans="1:20">
@@ -3571,13 +3571,13 @@
       <c r="R142">
         <v>6</v>
       </c>
-      <c r="S142">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T142">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S142" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T142" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="143" spans="1:20">
@@ -3587,13 +3587,13 @@
       <c r="R143">
         <v>6</v>
       </c>
-      <c r="S143">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T143">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S143" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T143" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="144" spans="1:20">
@@ -3603,13 +3603,13 @@
       <c r="R144">
         <v>1</v>
       </c>
-      <c r="S144">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T144">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S144" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T144" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="145" spans="1:20">
@@ -3619,13 +3619,13 @@
       <c r="R145">
         <v>4</v>
       </c>
-      <c r="S145">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T145">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S145" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T145" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="146" spans="1:20">
@@ -3635,13 +3635,13 @@
       <c r="R146">
         <v>2</v>
       </c>
-      <c r="S146">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T146">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S146" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T146" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="147" spans="1:20">
@@ -3651,13 +3651,13 @@
       <c r="R147">
         <v>4</v>
       </c>
-      <c r="S147">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T147">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S147" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T147" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="148" spans="1:20">
@@ -3667,13 +3667,13 @@
       <c r="R148">
         <v>1</v>
       </c>
-      <c r="S148">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T148">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S148" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T148" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="149" spans="1:20">
@@ -3683,13 +3683,13 @@
       <c r="R149">
         <v>2</v>
       </c>
-      <c r="S149">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T149">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S149" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T149" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="150" spans="1:20">
@@ -3699,13 +3699,13 @@
       <c r="R150">
         <v>1</v>
       </c>
-      <c r="S150">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T150">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S150" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T150" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="151" spans="1:20">
@@ -3715,13 +3715,13 @@
       <c r="R151">
         <v>6</v>
       </c>
-      <c r="S151">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T151">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S151" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T151" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="152" spans="1:20">
@@ -3731,13 +3731,13 @@
       <c r="R152">
         <v>7</v>
       </c>
-      <c r="S152">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T152">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S152" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T152" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="153" spans="1:20">
@@ -3747,13 +3747,13 @@
       <c r="R153">
         <v>6</v>
       </c>
-      <c r="S153">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T153">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S153" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T153" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="154" spans="1:20">
@@ -3763,13 +3763,13 @@
       <c r="R154">
         <v>6</v>
       </c>
-      <c r="S154">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T154">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S154" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T154" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="155" spans="1:20">
@@ -3779,13 +3779,13 @@
       <c r="R155">
         <v>1</v>
       </c>
-      <c r="S155">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T155">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S155" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T155" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="156" spans="1:20">
@@ -3795,13 +3795,13 @@
       <c r="R156">
         <v>7</v>
       </c>
-      <c r="S156">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T156">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S156" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T156" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="157" spans="1:20">
@@ -3811,13 +3811,13 @@
       <c r="R157">
         <v>7</v>
       </c>
-      <c r="S157">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T157">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S157" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T157" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="158" spans="1:20">
@@ -3827,13 +3827,13 @@
       <c r="R158">
         <v>1</v>
       </c>
-      <c r="S158">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T158">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S158" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T158" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="159" spans="1:20">
@@ -3843,13 +3843,13 @@
       <c r="R159">
         <v>1</v>
       </c>
-      <c r="S159">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T159">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S159" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T159" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="160" spans="1:20">
@@ -3859,13 +3859,13 @@
       <c r="R160">
         <v>1</v>
       </c>
-      <c r="S160">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T160">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S160" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T160" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="161" spans="1:20">
@@ -3875,13 +3875,13 @@
       <c r="R161">
         <v>1</v>
       </c>
-      <c r="S161">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T161">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S161" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T161" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="162" spans="1:20">
@@ -3891,13 +3891,13 @@
       <c r="R162">
         <v>6</v>
       </c>
-      <c r="S162">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T162">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S162" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T162" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="163" spans="1:20">
@@ -3907,13 +3907,13 @@
       <c r="R163">
         <v>6</v>
       </c>
-      <c r="S163">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T163">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S163" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T163" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="164" spans="1:20">
@@ -3923,13 +3923,13 @@
       <c r="R164">
         <v>6</v>
       </c>
-      <c r="S164">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T164">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S164" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T164" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="165" spans="1:20">
@@ -3939,13 +3939,13 @@
       <c r="R165">
         <v>2</v>
       </c>
-      <c r="S165">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T165">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S165" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T165" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="166" spans="1:20">
@@ -3955,13 +3955,13 @@
       <c r="R166">
         <v>1</v>
       </c>
-      <c r="S166">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T166">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S166" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T166" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="167" spans="1:20">
@@ -3971,13 +3971,13 @@
       <c r="R167">
         <v>6</v>
       </c>
-      <c r="S167">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T167">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S167" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T167" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="168" spans="1:20">
@@ -3987,13 +3987,13 @@
       <c r="R168">
         <v>6</v>
       </c>
-      <c r="S168">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T168">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S168" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T168" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="169" spans="1:20">
@@ -4003,13 +4003,13 @@
       <c r="R169">
         <v>7</v>
       </c>
-      <c r="S169">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T169">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S169" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T169" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="170" spans="1:20">
@@ -4019,13 +4019,13 @@
       <c r="R170">
         <v>6</v>
       </c>
-      <c r="S170">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T170">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S170" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T170" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="171" spans="1:20">
@@ -4035,13 +4035,13 @@
       <c r="R171">
         <v>6</v>
       </c>
-      <c r="S171">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T171">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S171" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T171" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="172" spans="1:20">
@@ -4051,13 +4051,13 @@
       <c r="R172">
         <v>1</v>
       </c>
-      <c r="S172">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T172">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S172" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T172" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="173" spans="1:20">
@@ -4067,13 +4067,13 @@
       <c r="R173">
         <v>7</v>
       </c>
-      <c r="S173">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T173">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S173" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T173" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="174" spans="1:20">
@@ -4083,13 +4083,13 @@
       <c r="R174">
         <v>1</v>
       </c>
-      <c r="S174">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T174">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S174" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T174" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="175" spans="1:20">
@@ -4099,13 +4099,13 @@
       <c r="R175">
         <v>3</v>
       </c>
-      <c r="S175">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T175">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S175" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T175" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="176" spans="1:20">
@@ -4115,13 +4115,13 @@
       <c r="R176">
         <v>2</v>
       </c>
-      <c r="S176">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T176">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S176" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T176" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="177" spans="1:20">
@@ -4131,13 +4131,13 @@
       <c r="R177">
         <v>1</v>
       </c>
-      <c r="S177">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T177">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S177" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T177" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="178" spans="1:20">
@@ -4147,13 +4147,13 @@
       <c r="R178">
         <v>6</v>
       </c>
-      <c r="S178">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T178">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S178" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T178" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="179" spans="1:20">
@@ -4163,13 +4163,13 @@
       <c r="R179">
         <v>2</v>
       </c>
-      <c r="S179">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T179">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S179" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T179" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="180" spans="1:20">
@@ -4179,13 +4179,13 @@
       <c r="R180">
         <v>2</v>
       </c>
-      <c r="S180">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T180">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S180" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T180" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="181" spans="1:20">
@@ -4195,13 +4195,13 @@
       <c r="R181">
         <v>2</v>
       </c>
-      <c r="S181">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T181">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S181" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T181" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="182" spans="1:20">
@@ -4211,13 +4211,13 @@
       <c r="R182">
         <v>6</v>
       </c>
-      <c r="S182">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T182">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S182" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T182" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="183" spans="1:20">
@@ -4227,13 +4227,13 @@
       <c r="R183">
         <v>1</v>
       </c>
-      <c r="S183">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T183">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S183" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T183" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="184" spans="1:20">
@@ -4243,13 +4243,13 @@
       <c r="R184">
         <v>1</v>
       </c>
-      <c r="S184">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T184">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S184" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T184" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="185" spans="1:20">
@@ -4259,13 +4259,13 @@
       <c r="R185">
         <v>6</v>
       </c>
-      <c r="S185">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T185">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S185" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T185" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="186" spans="1:20">
@@ -4275,13 +4275,13 @@
       <c r="R186">
         <v>2</v>
       </c>
-      <c r="S186">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T186">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S186" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T186" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="187" spans="1:20">
@@ -4291,13 +4291,13 @@
       <c r="R187">
         <v>1</v>
       </c>
-      <c r="S187">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T187">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S187" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T187" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="188" spans="1:20">
@@ -4307,13 +4307,13 @@
       <c r="R188">
         <v>1</v>
       </c>
-      <c r="S188">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T188">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S188" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T188" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="189" spans="1:20">
@@ -4323,13 +4323,13 @@
       <c r="R189">
         <v>6</v>
       </c>
-      <c r="S189">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T189">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S189" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T189" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="190" spans="1:20">
@@ -4339,13 +4339,13 @@
       <c r="R190">
         <v>1</v>
       </c>
-      <c r="S190">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T190">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S190" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T190" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="191" spans="1:20">
@@ -4355,13 +4355,13 @@
       <c r="R191">
         <v>3</v>
       </c>
-      <c r="S191">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T191">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S191" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T191" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="192" spans="1:20">
@@ -4371,13 +4371,13 @@
       <c r="R192">
         <v>1</v>
       </c>
-      <c r="S192">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T192">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S192" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T192" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="193" spans="1:20">
@@ -4387,13 +4387,13 @@
       <c r="R193">
         <v>1</v>
       </c>
-      <c r="S193">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T193">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S193" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T193" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="194" spans="1:20">
@@ -4403,13 +4403,13 @@
       <c r="R194">
         <v>1</v>
       </c>
-      <c r="S194">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T194">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="S194" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T194" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="195" spans="1:20">
@@ -4419,13 +4419,13 @@
       <c r="R195">
         <v>1</v>
       </c>
-      <c r="S195">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T195">
-        <f t="shared" ref="T195:T258" si="6">(D195+G195+J195+M195+P195)/5</f>
-        <v>0</v>
+      <c r="S195" t="e">
+        <f t="shared" ref="S195:S258" si="6">AVERAGE(C195,F195,I195,L195,O195)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T195" t="e">
+        <f t="shared" ref="T195:T258" si="7">AVERAGE(D195,G195,J195,M195,P195)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="196" spans="1:20">
@@ -4435,13 +4435,13 @@
       <c r="R196">
         <v>1</v>
       </c>
-      <c r="S196">
-        <f t="shared" ref="S196:S259" si="7">(C196+F196+I196+L196+O196)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T196">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S196" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T196" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="197" spans="1:20">
@@ -4451,13 +4451,13 @@
       <c r="R197">
         <v>7</v>
       </c>
-      <c r="S197">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T197">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S197" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T197" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="198" spans="1:20">
@@ -4467,13 +4467,13 @@
       <c r="R198">
         <v>1</v>
       </c>
-      <c r="S198">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T198">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S198" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T198" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="199" spans="1:20">
@@ -4483,13 +4483,13 @@
       <c r="R199">
         <v>1</v>
       </c>
-      <c r="S199">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T199">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S199" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T199" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="200" spans="1:20">
@@ -4499,13 +4499,13 @@
       <c r="R200">
         <v>1</v>
       </c>
-      <c r="S200">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T200">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S200" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T200" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="201" spans="1:20">
@@ -4515,13 +4515,13 @@
       <c r="R201">
         <v>5</v>
       </c>
-      <c r="S201">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T201">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S201" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T201" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="202" spans="1:20">
@@ -4531,13 +4531,13 @@
       <c r="R202">
         <v>6</v>
       </c>
-      <c r="S202">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T202">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S202" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T202" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="203" spans="1:20">
@@ -4547,13 +4547,13 @@
       <c r="R203">
         <v>1</v>
       </c>
-      <c r="S203">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T203">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S203" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T203" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="204" spans="1:20">
@@ -4563,13 +4563,13 @@
       <c r="R204">
         <v>6</v>
       </c>
-      <c r="S204">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T204">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S204" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T204" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="205" spans="1:20">
@@ -4579,13 +4579,13 @@
       <c r="R205">
         <v>1</v>
       </c>
-      <c r="S205">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T205">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S205" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T205" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="206" spans="1:20">
@@ -4595,13 +4595,13 @@
       <c r="R206">
         <v>6</v>
       </c>
-      <c r="S206">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T206">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S206" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T206" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="207" spans="1:20">
@@ -4611,13 +4611,13 @@
       <c r="R207">
         <v>1</v>
       </c>
-      <c r="S207">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T207">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S207" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T207" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="208" spans="1:20">
@@ -4627,13 +4627,13 @@
       <c r="R208">
         <v>1</v>
       </c>
-      <c r="S208">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T208">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S208" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T208" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="209" spans="1:20">
@@ -4643,13 +4643,13 @@
       <c r="R209">
         <v>1</v>
       </c>
-      <c r="S209">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T209">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S209" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T209" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="210" spans="1:20">
@@ -4659,13 +4659,13 @@
       <c r="R210">
         <v>7</v>
       </c>
-      <c r="S210">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T210">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S210" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T210" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="211" spans="1:20">
@@ -4675,13 +4675,13 @@
       <c r="R211">
         <v>1</v>
       </c>
-      <c r="S211">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T211">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S211" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T211" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="212" spans="1:20">
@@ -4691,13 +4691,13 @@
       <c r="R212">
         <v>6</v>
       </c>
-      <c r="S212">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T212">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S212" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T212" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="213" spans="1:20">
@@ -4707,13 +4707,13 @@
       <c r="R213">
         <v>7</v>
       </c>
-      <c r="S213">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T213">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S213" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T213" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="214" spans="1:20">
@@ -4723,13 +4723,13 @@
       <c r="R214">
         <v>2</v>
       </c>
-      <c r="S214">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T214">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S214" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T214" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="215" spans="1:20">
@@ -4739,13 +4739,13 @@
       <c r="R215">
         <v>1</v>
       </c>
-      <c r="S215">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T215">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S215" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T215" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="216" spans="1:20">
@@ -4755,13 +4755,13 @@
       <c r="R216">
         <v>1</v>
       </c>
-      <c r="S216">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T216">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S216" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T216" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="217" spans="1:20">
@@ -4771,13 +4771,13 @@
       <c r="R217">
         <v>1</v>
       </c>
-      <c r="S217">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T217">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S217" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T217" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="218" spans="1:20">
@@ -4787,13 +4787,13 @@
       <c r="R218">
         <v>3</v>
       </c>
-      <c r="S218">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T218">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S218" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T218" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="219" spans="1:20">
@@ -4803,13 +4803,13 @@
       <c r="R219">
         <v>4</v>
       </c>
-      <c r="S219">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T219">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S219" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T219" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="220" spans="1:20">
@@ -4819,13 +4819,13 @@
       <c r="R220">
         <v>6</v>
       </c>
-      <c r="S220">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T220">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S220" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T220" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="221" spans="1:20">
@@ -4835,13 +4835,13 @@
       <c r="R221">
         <v>6</v>
       </c>
-      <c r="S221">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T221">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S221" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T221" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="222" spans="1:20">
@@ -4851,13 +4851,13 @@
       <c r="R222">
         <v>1</v>
       </c>
-      <c r="S222">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T222">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S222" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T222" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="223" spans="1:20">
@@ -4867,13 +4867,13 @@
       <c r="R223">
         <v>1</v>
       </c>
-      <c r="S223">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T223">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S223" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T223" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="224" spans="1:20">
@@ -4883,13 +4883,13 @@
       <c r="R224">
         <v>6</v>
       </c>
-      <c r="S224">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T224">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S224" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T224" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="225" spans="1:20">
@@ -4899,13 +4899,13 @@
       <c r="R225">
         <v>6</v>
       </c>
-      <c r="S225">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T225">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S225" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T225" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="226" spans="1:20">
@@ -4915,13 +4915,13 @@
       <c r="R226">
         <v>6</v>
       </c>
-      <c r="S226">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T226">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S226" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T226" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="227" spans="1:20">
@@ -4931,13 +4931,13 @@
       <c r="R227">
         <v>2</v>
       </c>
-      <c r="S227">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T227">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S227" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T227" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="228" spans="1:20">
@@ -4947,13 +4947,13 @@
       <c r="R228">
         <v>6</v>
       </c>
-      <c r="S228">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T228">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S228" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T228" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="229" spans="1:20">
@@ -4963,13 +4963,13 @@
       <c r="R229">
         <v>1</v>
       </c>
-      <c r="S229">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T229">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S229" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T229" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="230" spans="1:20">
@@ -4979,13 +4979,13 @@
       <c r="R230">
         <v>6</v>
       </c>
-      <c r="S230">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T230">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S230" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T230" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="231" spans="1:20">
@@ -4995,13 +4995,13 @@
       <c r="R231">
         <v>6</v>
       </c>
-      <c r="S231">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T231">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S231" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T231" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="232" spans="1:20">
@@ -5011,13 +5011,13 @@
       <c r="R232">
         <v>1</v>
       </c>
-      <c r="S232">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T232">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S232" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T232" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="233" spans="1:20">
@@ -5027,13 +5027,13 @@
       <c r="R233">
         <v>6</v>
       </c>
-      <c r="S233">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T233">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S233" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T233" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="234" spans="1:20">
@@ -5043,13 +5043,13 @@
       <c r="R234">
         <v>6</v>
       </c>
-      <c r="S234">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T234">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S234" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T234" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="235" spans="1:20">
@@ -5059,13 +5059,13 @@
       <c r="R235">
         <v>6</v>
       </c>
-      <c r="S235">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T235">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S235" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T235" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="236" spans="1:20">
@@ -5075,13 +5075,13 @@
       <c r="R236">
         <v>6</v>
       </c>
-      <c r="S236">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T236">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S236" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T236" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="237" spans="1:20">
@@ -5091,13 +5091,13 @@
       <c r="R237">
         <v>2</v>
       </c>
-      <c r="S237">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T237">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S237" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T237" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="238" spans="1:20">
@@ -5107,13 +5107,13 @@
       <c r="R238">
         <v>1</v>
       </c>
-      <c r="S238">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T238">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S238" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T238" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="239" spans="1:20">
@@ -5123,13 +5123,13 @@
       <c r="R239">
         <v>1</v>
       </c>
-      <c r="S239">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T239">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S239" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T239" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="240" spans="1:20">
@@ -5139,13 +5139,13 @@
       <c r="R240">
         <v>6</v>
       </c>
-      <c r="S240">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T240">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S240" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T240" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="241" spans="1:20">
@@ -5155,13 +5155,13 @@
       <c r="R241">
         <v>6</v>
       </c>
-      <c r="S241">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T241">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S241" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T241" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="242" spans="1:20">
@@ -5171,13 +5171,13 @@
       <c r="R242">
         <v>1</v>
       </c>
-      <c r="S242">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T242">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S242" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T242" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="243" spans="1:20">
@@ -5187,13 +5187,13 @@
       <c r="R243">
         <v>1</v>
       </c>
-      <c r="S243">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T243">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S243" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T243" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="244" spans="1:20">
@@ -5203,13 +5203,13 @@
       <c r="R244">
         <v>6</v>
       </c>
-      <c r="S244">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T244">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S244" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T244" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="245" spans="1:20">
@@ -5219,13 +5219,13 @@
       <c r="R245">
         <v>6</v>
       </c>
-      <c r="S245">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T245">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S245" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T245" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="246" spans="1:20">
@@ -5235,13 +5235,13 @@
       <c r="R246">
         <v>7</v>
       </c>
-      <c r="S246">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T246">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S246" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T246" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="247" spans="1:20">
@@ -5251,13 +5251,13 @@
       <c r="R247">
         <v>6</v>
       </c>
-      <c r="S247">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T247">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S247" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T247" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="248" spans="1:20">
@@ -5267,13 +5267,13 @@
       <c r="R248">
         <v>2</v>
       </c>
-      <c r="S248">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T248">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S248" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T248" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="249" spans="1:20">
@@ -5283,13 +5283,13 @@
       <c r="R249">
         <v>6</v>
       </c>
-      <c r="S249">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T249">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S249" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T249" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="250" spans="1:20">
@@ -5299,13 +5299,13 @@
       <c r="R250">
         <v>6</v>
       </c>
-      <c r="S250">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T250">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S250" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T250" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="251" spans="1:20">
@@ -5315,13 +5315,13 @@
       <c r="R251">
         <v>6</v>
       </c>
-      <c r="S251">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T251">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S251" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T251" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="252" spans="1:20">
@@ -5331,13 +5331,13 @@
       <c r="R252">
         <v>1</v>
       </c>
-      <c r="S252">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T252">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S252" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T252" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="253" spans="1:20">
@@ -5347,13 +5347,13 @@
       <c r="R253">
         <v>2</v>
       </c>
-      <c r="S253">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T253">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S253" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T253" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="254" spans="1:20">
@@ -5363,13 +5363,13 @@
       <c r="R254">
         <v>1</v>
       </c>
-      <c r="S254">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T254">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S254" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T254" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="255" spans="1:20">
@@ -5379,13 +5379,13 @@
       <c r="R255">
         <v>1</v>
       </c>
-      <c r="S255">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T255">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S255" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T255" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="256" spans="1:20">
@@ -5395,13 +5395,13 @@
       <c r="R256">
         <v>1</v>
       </c>
-      <c r="S256">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T256">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S256" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T256" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="257" spans="1:20">
@@ -5411,13 +5411,13 @@
       <c r="R257">
         <v>1</v>
       </c>
-      <c r="S257">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T257">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S257" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T257" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="258" spans="1:20">
@@ -5427,13 +5427,13 @@
       <c r="R258">
         <v>5</v>
       </c>
-      <c r="S258">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T258">
-        <f t="shared" si="6"/>
-        <v>0</v>
+      <c r="S258" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T258" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="259" spans="1:20">
@@ -5443,13 +5443,13 @@
       <c r="R259">
         <v>2</v>
       </c>
-      <c r="S259">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="T259">
-        <f t="shared" ref="T259:T270" si="8">(D259+G259+J259+M259+P259)/5</f>
-        <v>0</v>
+      <c r="S259" t="e">
+        <f t="shared" ref="S259:S271" si="8">AVERAGE(C259,F259,I259,L259,O259)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T259" t="e">
+        <f t="shared" ref="T259:T271" si="9">AVERAGE(D259,G259,J259,M259,P259)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="260" spans="1:20">
@@ -5459,13 +5459,13 @@
       <c r="R260">
         <v>1</v>
       </c>
-      <c r="S260">
-        <f t="shared" ref="S260:S270" si="9">(C260+F260+I260+L260+O260)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T260">
+      <c r="S260" t="e">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T260" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="261" spans="1:20">
@@ -5475,13 +5475,13 @@
       <c r="R261">
         <v>1</v>
       </c>
-      <c r="S261">
+      <c r="S261" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T261" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T261">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="262" spans="1:20">
@@ -5491,13 +5491,13 @@
       <c r="R262">
         <v>1</v>
       </c>
-      <c r="S262">
+      <c r="S262" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T262" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T262">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="263" spans="1:20">
@@ -5507,13 +5507,13 @@
       <c r="R263">
         <v>6</v>
       </c>
-      <c r="S263">
+      <c r="S263" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T263" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T263">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="264" spans="1:20">
@@ -5523,13 +5523,13 @@
       <c r="R264">
         <v>6</v>
       </c>
-      <c r="S264">
+      <c r="S264" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T264" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T264">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="265" spans="1:20">
@@ -5539,13 +5539,13 @@
       <c r="R265">
         <v>6</v>
       </c>
-      <c r="S265">
+      <c r="S265" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T265" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T265">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="266" spans="1:20">
@@ -5555,13 +5555,13 @@
       <c r="R266">
         <v>1</v>
       </c>
-      <c r="S266">
+      <c r="S266" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T266" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T266">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="267" spans="1:20">
@@ -5571,13 +5571,13 @@
       <c r="R267">
         <v>6</v>
       </c>
-      <c r="S267">
+      <c r="S267" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T267" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T267">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="268" spans="1:20">
@@ -5587,13 +5587,13 @@
       <c r="R268">
         <v>1</v>
       </c>
-      <c r="S268">
+      <c r="S268" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T268" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T268">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="269" spans="1:20">
@@ -5603,13 +5603,13 @@
       <c r="R269">
         <v>1</v>
       </c>
-      <c r="S269">
+      <c r="S269" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T269" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T269">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="270" spans="1:20">
@@ -5619,13 +5619,13 @@
       <c r="R270">
         <v>1</v>
       </c>
-      <c r="S270">
+      <c r="S270" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T270" t="e">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T270">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="271" spans="1:20">
@@ -5635,13 +5635,13 @@
       <c r="R271">
         <v>1</v>
       </c>
-      <c r="S271">
-        <f t="shared" ref="S271" si="10">(C271+F271+I271+L271+O271)/5</f>
-        <v>0</v>
-      </c>
-      <c r="T271">
-        <f t="shared" ref="T271" si="11">(D271+G271+J271+M271+P271)/5</f>
-        <v>0</v>
+      <c r="S271" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T271" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
